--- a/results/I3_N5_M3_T30_C150_DepCentral_s0_P6_res.xlsx
+++ b/results/I3_N5_M3_T30_C150_DepCentral_s0_P6_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>875.1075326957146</v>
+        <v>23.98753269570873</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01200008392333984</v>
+        <v>0.002000093460083008</v>
       </c>
     </row>
     <row r="5">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7137534588357523</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.7137534588357523</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>281.1300000000057</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>569.99</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,17 +580,6 @@
         <is>
           <t>alpha</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -667,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -678,7 +667,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -689,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -769,7 +758,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -791,7 +780,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -802,7 +791,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -893,7 +882,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20</v>
+        <v>23.18449368032031</v>
       </c>
     </row>
     <row r="5">
@@ -909,7 +898,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.105858841188141</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
@@ -917,7 +906,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2.978580466864702</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
@@ -925,7 +914,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>22.12249852767911</v>
+        <v>29.46290845299062</v>
       </c>
     </row>
     <row r="9">
@@ -933,7 +922,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>29.46290845299062</v>
+        <v>27.0214195331353</v>
       </c>
     </row>
     <row r="10">
@@ -941,7 +930,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>27.0214195331353</v>
+        <v>22.12249852767911</v>
       </c>
     </row>
   </sheetData>
@@ -955,7 +944,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -983,20 +972,6 @@
         <is>
           <t>y</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>7</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1098,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>152.2550000000006</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8">
@@ -1109,7 +1084,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>151.9700000000007</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9">
@@ -1120,7 +1095,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>156.1</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10">
@@ -1131,7 +1106,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>158.73</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11">
@@ -1142,7 +1117,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>156.0700000000006</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12">
@@ -1153,7 +1128,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>167.6400000000006</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13">
@@ -1164,7 +1139,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>171.2250000000006</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14">
@@ -1175,7 +1150,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>173.3450000000006</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15">
@@ -1186,7 +1161,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>178.0200000000006</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16">
@@ -1197,7 +1172,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>175.2100000000006</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17">
@@ -1208,7 +1183,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>99.54499999999936</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18">
@@ -1219,7 +1194,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>92.51499999999935</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19">
@@ -1230,7 +1205,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>100.0699999999993</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20">
@@ -1241,7 +1216,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>90.09499999999935</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21">
@@ -1252,7 +1227,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>102.7799999999993</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22">
@@ -1263,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>84.08</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23">
@@ -1274,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>75.84</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24">
@@ -1285,7 +1260,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>80.26000000000001</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25">
@@ -1296,7 +1271,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>81.81999999999999</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26">
@@ -1307,7 +1282,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>80.22</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27">
@@ -1318,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>61.37999999999978</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28">
@@ -1329,7 +1304,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>61.35999999999978</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29">
@@ -1340,7 +1315,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>65.61999999999978</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30">
@@ -1351,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>66.05999999999977</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31">
@@ -1362,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>64.25999999999978</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32">
@@ -1373,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>99.54499999999936</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33">
@@ -1384,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>92.51499999999935</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34">
@@ -1395,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>100.0699999999993</v>
+        <v>116</v>
       </c>
     </row>
     <row r="35">
@@ -1406,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>90.09499999999935</v>
+        <v>121</v>
       </c>
     </row>
     <row r="36">
@@ -1417,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>102.7799999999993</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37">
@@ -1428,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>152.2550000000006</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38">
@@ -1439,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>151.9700000000007</v>
+        <v>118</v>
       </c>
     </row>
     <row r="39">
@@ -1450,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>156.1</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40">
@@ -1461,7 +1436,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>158.73</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41">
@@ -1472,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>156.0700000000006</v>
+        <v>108</v>
       </c>
     </row>
     <row r="42">
@@ -1483,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>167.6400000000006</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43">
@@ -1494,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>171.2250000000006</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44">
@@ -1505,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>173.3450000000006</v>
+        <v>54</v>
       </c>
     </row>
     <row r="45">
@@ -1516,7 +1491,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>178.0200000000006</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46">
@@ -1527,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>175.2100000000006</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1629,7 +1604,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>2.255</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1640,7 +1615,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>1.97</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1651,7 +1626,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>6.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1662,7 +1637,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>8.73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1673,7 +1648,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>6.07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1684,7 +1659,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>17.64000000000055</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1695,7 +1670,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>21.22500000000056</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1706,7 +1681,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>23.3450000000006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1717,7 +1692,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>28.02000000000058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1728,7 +1703,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>25.21000000000058</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1830,7 +1805,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>5.14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1841,7 +1816,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>12.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1852,7 +1827,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>8.99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1863,7 +1838,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>13.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1874,7 +1849,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>11.68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1940,7 +1915,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>24.435</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1951,7 +1926,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>21.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1962,7 +1937,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>26.385</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1973,7 +1948,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>21.925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1984,7 +1959,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>20.27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1995,7 +1970,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>15.84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2006,7 +1981,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>25.985</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2017,7 +1992,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>25.86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2028,7 +2003,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>25.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2039,7 +2014,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>26.155</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2053,7 +2028,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2078,116 +2053,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>2</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>2</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>2</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>2</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
